--- a/doc/20220707名仕华庭二期按揭分期业主网签需具备条件.xlsx
+++ b/doc/20220707名仕华庭二期按揭分期业主网签需具备条件.xlsx
@@ -5,19 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\名仕华庭户型图\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\GitHubs\markdown-pic\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1515BBD-6ADB-488B-B6E5-6BE48C3A3CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB47BC6-9097-41D8-A0A4-10F7A1076E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="明细" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="各楼户数" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1998,7 +2009,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -2226,7 +2237,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2253,9 +2264,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2269,6 +2277,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2577,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2592,20 +2603,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="5">
         <v>1</v>
       </c>
@@ -2646,11 +2657,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="5">
         <v>18</v>
       </c>
@@ -2980,11 +2991,11 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="5">
         <v>106</v>
       </c>
@@ -3552,16 +3563,16 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A59" s="28">
+      <c r="A59" s="27">
         <v>33</v>
       </c>
-      <c r="B59" s="30">
+      <c r="B59" s="29">
         <v>12203</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="30">
+      <c r="D59" s="29">
         <v>93.46</v>
       </c>
       <c r="E59" s="11" t="s">
@@ -3569,10 +3580,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="29"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="18"/>
     </row>
     <row r="61" spans="1:5" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
@@ -4817,11 +4828,11 @@
       </c>
     </row>
     <row r="134" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A134" s="27" t="s">
+      <c r="A134" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="26"/>
       <c r="D134" s="5">
         <v>40</v>
       </c>
@@ -5525,11 +5536,11 @@
       </c>
     </row>
     <row r="176" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A176" s="27" t="s">
+      <c r="A176" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="B176" s="27"/>
-      <c r="C176" s="27"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="26"/>
       <c r="D176" s="5">
         <v>43</v>
       </c>
@@ -6280,11 +6291,11 @@
       </c>
     </row>
     <row r="221" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A221" s="27" t="s">
+      <c r="A221" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="B221" s="27"/>
-      <c r="C221" s="27"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="26"/>
       <c r="D221" s="5">
         <v>32</v>
       </c>
@@ -6835,11 +6846,11 @@
       </c>
     </row>
     <row r="254" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A254" s="27" t="s">
+      <c r="A254" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="B254" s="27"/>
-      <c r="C254" s="27"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="26"/>
       <c r="D254" s="5">
         <v>56</v>
       </c>
@@ -7815,11 +7826,11 @@
       </c>
     </row>
     <row r="312" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A312" s="27" t="s">
+      <c r="A312" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="B312" s="27"/>
-      <c r="C312" s="27"/>
+      <c r="B312" s="26"/>
+      <c r="C312" s="26"/>
       <c r="D312" s="5">
         <v>55</v>
       </c>
@@ -8775,6 +8786,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="D59:D60"/>
     <mergeCell ref="A176:C176"/>
     <mergeCell ref="A221:C221"/>
     <mergeCell ref="A254:C254"/>
@@ -8782,12 +8799,6 @@
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="D59:D60"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8812,79 +8823,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <f>SUM(B1:B8)</f>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B8">
+    <sortCondition ref="A1:A8"/>
+  </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/20220707名仕华庭二期按揭分期业主网签需具备条件.xlsx
+++ b/doc/20220707名仕华庭二期按揭分期业主网签需具备条件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\GitHubs\markdown-pic\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB47BC6-9097-41D8-A0A4-10F7A1076E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA52A303-FED1-4DA4-874B-5F1465CA4111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="526">
   <si>
     <t>名仕华庭二期按揭/分期业主网签需具备条件</t>
   </si>
@@ -2002,6 +2002,18 @@
   </si>
   <si>
     <t>1、按揭分期业主需补交全款；2、若为业主本人银行卡支付，则需提供银行流水凭证及POS存根（签字摁手印），若非业主本人银行卡需由付款人出具与业主关系证明、委托支付函及购房详情的情况说明并附付款人身份证复印件（付款人及业主签字摁手印），确认房款已打入双成公司或双成公司指定账户。3、差265000元付款凭证，若为现金支付，业主需证明资金来源并说明现金交易的时间、地点、资金流向及经办人等，同时后期需报财务审计核实。</t>
+  </si>
+  <si>
+    <t>楼号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>户数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>总户数</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2011,7 +2023,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2093,6 +2105,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2185,7 +2205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2264,7 +2284,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2273,14 +2302,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2589,10 +2615,10 @@
   <dimension ref="A1:E368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2603,20 +2629,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="5">
         <v>1</v>
       </c>
@@ -2657,11 +2683,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="5">
         <v>18</v>
       </c>
@@ -2991,11 +3017,11 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="5">
         <v>106</v>
       </c>
@@ -3563,16 +3589,16 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A59" s="27">
+      <c r="A59" s="30">
         <v>33</v>
       </c>
-      <c r="B59" s="29">
+      <c r="B59" s="28">
         <v>12203</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="28">
         <v>93.46</v>
       </c>
       <c r="E59" s="11" t="s">
@@ -3580,10 +3606,10 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
       <c r="E60" s="18"/>
     </row>
     <row r="61" spans="1:5" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
@@ -4828,11 +4854,11 @@
       </c>
     </row>
     <row r="134" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A134" s="26" t="s">
+      <c r="A134" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
       <c r="D134" s="5">
         <v>40</v>
       </c>
@@ -5536,11 +5562,11 @@
       </c>
     </row>
     <row r="176" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A176" s="26" t="s">
+      <c r="A176" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="27"/>
       <c r="D176" s="5">
         <v>43</v>
       </c>
@@ -6291,11 +6317,11 @@
       </c>
     </row>
     <row r="221" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A221" s="26" t="s">
+      <c r="A221" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="B221" s="26"/>
-      <c r="C221" s="26"/>
+      <c r="B221" s="27"/>
+      <c r="C221" s="27"/>
       <c r="D221" s="5">
         <v>32</v>
       </c>
@@ -6846,11 +6872,11 @@
       </c>
     </row>
     <row r="254" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A254" s="26" t="s">
+      <c r="A254" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="B254" s="26"/>
-      <c r="C254" s="26"/>
+      <c r="B254" s="27"/>
+      <c r="C254" s="27"/>
       <c r="D254" s="5">
         <v>56</v>
       </c>
@@ -7826,11 +7852,11 @@
       </c>
     </row>
     <row r="312" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A312" s="26" t="s">
+      <c r="A312" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="B312" s="26"/>
-      <c r="C312" s="26"/>
+      <c r="B312" s="27"/>
+      <c r="C312" s="27"/>
       <c r="D312" s="5">
         <v>55</v>
       </c>
@@ -8786,12 +8812,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="D59:D60"/>
     <mergeCell ref="A176:C176"/>
     <mergeCell ref="A221:C221"/>
     <mergeCell ref="A254:C254"/>
@@ -8799,6 +8819,12 @@
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="D59:D60"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8823,91 +8849,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1">
+      <c r="A1" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="33">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="33">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="33">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="33">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="33">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="33">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="33">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9">
-        <f>SUM(B1:B8)</f>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="B10" s="33">
+        <f>SUM(B2:B9)</f>
         <v>351</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B8">
-    <sortCondition ref="A1:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B9">
+    <sortCondition ref="A2:A9"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/20220707名仕华庭二期按揭分期业主网签需具备条件.xlsx
+++ b/doc/20220707名仕华庭二期按揭分期业主网签需具备条件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\GitHubs\markdown-pic\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA52A303-FED1-4DA4-874B-5F1465CA4111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C363F0-A19F-4C37-AFE0-2906BAE1F7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8852,7 +8852,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
